--- a/Material/ResNet/Tentativa 2/Matriz de Confusão.xlsx
+++ b/Material/ResNet/Tentativa 2/Matriz de Confusão.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\Tentativa 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD734B-A4EE-4B14-8610-15DE9B747797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54E1BE-7380-4122-84CF-5B14C979A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
@@ -460,17 +463,17 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -479,17 +482,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -498,13 +501,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -514,15 +517,15 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="F6">
         <f>SUM(F3:F5)</f>

--- a/Material/ResNet/Tentativa 2/Matriz de Confusão.xlsx
+++ b/Material/ResNet/Tentativa 2/Matriz de Confusão.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54E1BE-7380-4122-84CF-5B14C979A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD666F-1A75-4008-90F8-D76F36291D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -110,15 +110,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,29 +428,26 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -463,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
@@ -482,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
       <c r="E4" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
@@ -501,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -517,15 +514,15 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F6">
         <f>SUM(F3:F5)</f>
